--- a/biology/Botanique/Hydroseraceae/Hydroseraceae.xlsx
+++ b/biology/Botanique/Hydroseraceae/Hydroseraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hydroseraceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Coscinodiscophyceae et de l’ordre des Stephanopyxales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Hydrosera, dérivé du grec ΰδωρ / ÿdor, eau, et peut-être du latin sericum, soie.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Hydrosera se présente comme des cellules triangulaires et ondulées en vue valvulaire, rectangulaires en vue de ceinture ; formant de courtes chaînes par des coussinets de mucilage sécrétés aux trois angles valvulaires ; attaché au substrat par sécrétion à un angle.
-Une spécifié du genre Hydrosera qu'il partage avec le genre Terpsinoë (famille des Anaulaceae) est la présence de pseudocelles à chaque extrémités de la diatomée (Pseudocelle : plage d'aréoles, ou pores, de taille inférieure à celles situées sur les valves)[1],[2].
+Une spécifié du genre Hydrosera qu'il partage avec le genre Terpsinoë (famille des Anaulaceae) est la présence de pseudocelles à chaque extrémités de la diatomée (Pseudocelle : plage d'aréoles, ou pores, de taille inférieure à celles situées sur les valves),.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrosera est un genre épiphyte marin que l'on trouve généralement dans les situations estuariennes; il peut pénétrer en amont dans les fleuves et autres sites d'eau douce. Il est généralement considéré comme tropical mais a aussi enregistré au nord, notamment dans la Tamise (Royaume-Uni.
 </t>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (28 juillet 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (28 juillet 2022) :
 Hydrosera Wallich, 1858</t>
         </is>
       </c>
@@ -636,9 +656,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Hydroseraceae Nikolaev &amp; Harwood, 2002[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Hydroseraceae Nikolaev &amp; Harwood, 2002.
 </t>
         </is>
       </c>
@@ -667,7 +689,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(ru) Nikolaev, V.A. &amp; Harwood, D.M. (2002). [Morphology, taxonomy and classification system of centric diatoms].  pp. 1-118, 200 figs. St. Petersberg: Nauka.</t>
         </is>
